--- a/Screening (1).xlsx
+++ b/Screening (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD05C6A0-0E70-4715-9CF1-01EF0B37A120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD3654A-B773-47D0-95C2-43542031585B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="418">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1745,7 +1745,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5615,8 +5615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B325D6-7B6C-4884-BEE4-C1CE0BF921AC}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8482,10 +8482,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72126703-8CED-47FD-8BF6-A6CD4C91F5A2}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8596,6 +8596,86 @@
         <v>48</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8603,10 +8683,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253EC1A4-7B9E-46C2-80DA-365E128C507F}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8789,6 +8869,74 @@
         <v>47</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -9289,25 +9437,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -9524,10 +9653,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9550,20 +9709,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-    <ds:schemaRef ds:uri="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Screening (1).xlsx
+++ b/Screening (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD3654A-B773-47D0-95C2-43542031585B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D91F4CF-330F-4D97-9A06-CE9B7878AAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="418">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1742,10 +1742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1807,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1818,7 +1818,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1906,6 +1906,17 @@
         <v>1</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5613,10 +5624,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B325D6-7B6C-4884-BEE4-C1CE0BF921AC}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5885,6 +5896,20 @@
       </c>
       <c r="D15" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -8482,10 +8507,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72126703-8CED-47FD-8BF6-A6CD4C91F5A2}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8676,6 +8701,26 @@
         <v>48</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8683,10 +8728,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253EC1A4-7B9E-46C2-80DA-365E128C507F}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8937,6 +8982,23 @@
         <v>47</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>47</v>
       </c>
     </row>

--- a/Screening (1).xlsx
+++ b/Screening (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D91F4CF-330F-4D97-9A06-CE9B7878AAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2218FF7D-761B-468B-B52E-4E53AB45812A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="5" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="424">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1317,6 +1317,24 @@
   </si>
   <si>
     <t>testTp4</t>
+  </si>
+  <si>
+    <t>testTp6</t>
+  </si>
+  <si>
+    <t>testTp5</t>
+  </si>
+  <si>
+    <t>testTp7</t>
+  </si>
+  <si>
+    <t>testTp8</t>
+  </si>
+  <si>
+    <t>testTp9</t>
+  </si>
+  <si>
+    <t>testTp10</t>
   </si>
 </sst>
 </file>
@@ -5624,10 +5642,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B325D6-7B6C-4884-BEE4-C1CE0BF921AC}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5900,16 +5918,86 @@
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -8507,10 +8595,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72126703-8CED-47FD-8BF6-A6CD4C91F5A2}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8703,10 +8791,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -8717,7 +8805,107 @@
       <c r="E10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8728,10 +8916,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253EC1A4-7B9E-46C2-80DA-365E128C507F}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8987,10 +9175,10 @@
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -8999,6 +9187,91 @@
         <v>47</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -9499,6 +9772,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -9715,16 +9998,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9735,6 +10008,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9753,23 +10043,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>

--- a/Screening (1).xlsx
+++ b/Screening (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2218FF7D-761B-468B-B52E-4E53AB45812A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458C88E2-D9BC-4A8A-BA57-D1955BC2CC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="5" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="424">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1760,10 +1760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1929,16 +1929,72 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B15" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5645,7 +5701,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A21"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8597,8 +8653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72126703-8CED-47FD-8BF6-A6CD4C91F5A2}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8919,7 +8975,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A16"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9772,16 +9828,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -9998,6 +10044,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -10008,23 +10064,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10043,6 +10082,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>

--- a/Screening (1).xlsx
+++ b/Screening (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458C88E2-D9BC-4A8A-BA57-D1955BC2CC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC635C0-2130-4085-880C-7F2B3573EE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="425">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1335,6 +1335,9 @@
   </si>
   <si>
     <t>testTp10</t>
+  </si>
+  <si>
+    <t>HLSupervisorContraCosta1</t>
   </si>
 </sst>
 </file>
@@ -1762,7 +1765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C14" sqref="C14:C20"/>
     </sheetView>
   </sheetViews>
@@ -5700,8 +5703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B325D6-7B6C-4884-BEE4-C1CE0BF921AC}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5908,7 +5911,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>424</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -9828,6 +9831,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -10044,16 +10057,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -10064,6 +10067,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10082,23 +10102,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>

--- a/Screening (1).xlsx
+++ b/Screening (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC635C0-2130-4085-880C-7F2B3573EE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD17DAE-B7E0-4FC7-A45A-4E8D0074F757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="425">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -5704,7 +5704,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5807,7 +5807,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>424</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -5911,7 +5911,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>424</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -9841,6 +9841,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -10057,15 +10066,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
@@ -10084,6 +10084,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10100,12 +10108,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>